--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5555316666666666</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N2">
-        <v>1.666595</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q2">
-        <v>0.1202759390233333</v>
+        <v>0.03935480080066667</v>
       </c>
       <c r="R2">
-        <v>1.08248345121</v>
+        <v>0.3541932072060001</v>
       </c>
       <c r="S2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="T2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,96 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1817723333333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N3">
-        <v>0.5453170000000001</v>
+        <v>60.27345</v>
       </c>
       <c r="O3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q3">
-        <v>0.03935480080066667</v>
+        <v>4.3498545219</v>
       </c>
       <c r="R3">
-        <v>0.3541932072060001</v>
+        <v>39.1486906971</v>
       </c>
       <c r="S3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="T3">
-        <v>0.006342799811357313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.216506</v>
-      </c>
-      <c r="H4">
-        <v>0.649518</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N4">
-        <v>83.762266</v>
-      </c>
-      <c r="O4">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P4">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q4">
-        <v>6.045011054198667</v>
-      </c>
-      <c r="R4">
-        <v>54.405099487788</v>
-      </c>
-      <c r="S4">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="T4">
-        <v>0.9742723681522143</v>
+        <v>0.9910337379907752</v>
       </c>
     </row>
   </sheetData>
